--- a/Code/Results/Cases/Case_3_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9944235739552523</v>
+        <v>1.022018107476085</v>
       </c>
       <c r="D2">
-        <v>1.019084738980397</v>
+        <v>1.032962751587116</v>
       </c>
       <c r="E2">
-        <v>1.001683865271483</v>
+        <v>1.022823282317981</v>
       </c>
       <c r="F2">
-        <v>1.025846037445719</v>
+        <v>1.044095121657267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047349075695837</v>
+        <v>1.033642522701657</v>
       </c>
       <c r="J2">
-        <v>1.016772363928502</v>
+        <v>1.027206307857129</v>
       </c>
       <c r="K2">
-        <v>1.03028444486495</v>
+        <v>1.03576646986476</v>
       </c>
       <c r="L2">
-        <v>1.013119790918864</v>
+        <v>1.025656529141747</v>
       </c>
       <c r="M2">
-        <v>1.036956666678579</v>
+        <v>1.046867136853178</v>
       </c>
       <c r="N2">
-        <v>1.009611128633186</v>
+        <v>1.013139812424245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9983635315938461</v>
+        <v>1.022853609180232</v>
       </c>
       <c r="D3">
-        <v>1.022039023959185</v>
+        <v>1.033600382175798</v>
       </c>
       <c r="E3">
-        <v>1.004777203366938</v>
+        <v>1.023528897289025</v>
       </c>
       <c r="F3">
-        <v>1.029461496832858</v>
+        <v>1.044897680723172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048436340141572</v>
+        <v>1.033791518447116</v>
       </c>
       <c r="J3">
-        <v>1.018898908021116</v>
+        <v>1.027680270806949</v>
       </c>
       <c r="K3">
-        <v>1.032397468308294</v>
+        <v>1.036213439642323</v>
       </c>
       <c r="L3">
-        <v>1.015349321736283</v>
+        <v>1.026169168396784</v>
       </c>
       <c r="M3">
-        <v>1.039730794643235</v>
+        <v>1.047480886780453</v>
       </c>
       <c r="N3">
-        <v>1.010319358813424</v>
+        <v>1.013296993306183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000864906429656</v>
+        <v>1.02339474965871</v>
       </c>
       <c r="D4">
-        <v>1.023914935877507</v>
+        <v>1.034013043331188</v>
       </c>
       <c r="E4">
-        <v>1.006747140482872</v>
+        <v>1.023986325646339</v>
       </c>
       <c r="F4">
-        <v>1.031758563128045</v>
+        <v>1.045417349796081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049112693277914</v>
+        <v>1.033886289418028</v>
       </c>
       <c r="J4">
-        <v>1.020246513658854</v>
+        <v>1.02798683194037</v>
       </c>
       <c r="K4">
-        <v>1.033733048651878</v>
+        <v>1.03650204324569</v>
       </c>
       <c r="L4">
-        <v>1.016764809861597</v>
+        <v>1.026501056228335</v>
       </c>
       <c r="M4">
-        <v>1.041488223884349</v>
+        <v>1.047877729965687</v>
       </c>
       <c r="N4">
-        <v>1.010768099385523</v>
+        <v>1.013398634522934</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001905341401503</v>
+        <v>1.023622366801488</v>
       </c>
       <c r="D5">
-        <v>1.024695237827056</v>
+        <v>1.034186541319721</v>
       </c>
       <c r="E5">
-        <v>1.007567943229651</v>
+        <v>1.02417882980115</v>
       </c>
       <c r="F5">
-        <v>1.032714382108841</v>
+        <v>1.04563590272557</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049390629091739</v>
+        <v>1.03392573777882</v>
       </c>
       <c r="J5">
-        <v>1.020806419234997</v>
+        <v>1.02811567912987</v>
       </c>
       <c r="K5">
-        <v>1.034287112054397</v>
+        <v>1.036623223349677</v>
       </c>
       <c r="L5">
-        <v>1.017353549099737</v>
+        <v>1.026640622621399</v>
       </c>
       <c r="M5">
-        <v>1.042218260896421</v>
+        <v>1.048044490670786</v>
       </c>
       <c r="N5">
-        <v>1.010954524474523</v>
+        <v>1.013441348396689</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002079391698959</v>
+        <v>1.023660591810276</v>
       </c>
       <c r="D6">
-        <v>1.024825771539967</v>
+        <v>1.034215673234101</v>
       </c>
       <c r="E6">
-        <v>1.007705334339578</v>
+        <v>1.024211163845906</v>
       </c>
       <c r="F6">
-        <v>1.032874297527305</v>
+        <v>1.045672603592923</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049436923185145</v>
+        <v>1.033932338238871</v>
       </c>
       <c r="J6">
-        <v>1.020900046093939</v>
+        <v>1.02813731127818</v>
       </c>
       <c r="K6">
-        <v>1.034379711784126</v>
+        <v>1.036643561251601</v>
       </c>
       <c r="L6">
-        <v>1.01745203456025</v>
+        <v>1.026664058782392</v>
       </c>
       <c r="M6">
-        <v>1.042340328293271</v>
+        <v>1.048072486243252</v>
       </c>
       <c r="N6">
-        <v>1.010985697160986</v>
+        <v>1.013448519287045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000878852093598</v>
+        <v>1.023397790613988</v>
       </c>
       <c r="D7">
-        <v>1.023925394765368</v>
+        <v>1.034015361562306</v>
       </c>
       <c r="E7">
-        <v>1.006758136718289</v>
+        <v>1.023988897107691</v>
       </c>
       <c r="F7">
-        <v>1.031771373241266</v>
+        <v>1.045420269783355</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049116432094805</v>
+        <v>1.03388681807573</v>
       </c>
       <c r="J7">
-        <v>1.020254020962272</v>
+        <v>1.027988553726685</v>
       </c>
       <c r="K7">
-        <v>1.033740480986148</v>
+        <v>1.036503663046874</v>
       </c>
       <c r="L7">
-        <v>1.016772701281435</v>
+        <v>1.026502920962928</v>
       </c>
       <c r="M7">
-        <v>1.041498012914067</v>
+        <v>1.047879958516204</v>
       </c>
       <c r="N7">
-        <v>1.010770599077985</v>
+        <v>1.013399205331617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9957652691115421</v>
+        <v>1.022300361586107</v>
       </c>
       <c r="D8">
-        <v>1.020090680760269</v>
+        <v>1.033178225888122</v>
       </c>
       <c r="E8">
-        <v>1.002735964416987</v>
+        <v>1.023061571471347</v>
       </c>
       <c r="F8">
-        <v>1.027076844434912</v>
+        <v>1.044366274537532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047722213672639</v>
+        <v>1.033693215375671</v>
       </c>
       <c r="J8">
-        <v>1.017497029138773</v>
+        <v>1.027366510880474</v>
       </c>
       <c r="K8">
-        <v>1.031005217728512</v>
+        <v>1.035917652018142</v>
       </c>
       <c r="L8">
-        <v>1.013879002431717</v>
+        <v>1.025829740719718</v>
       </c>
       <c r="M8">
-        <v>1.037902120250578</v>
+        <v>1.047074616337178</v>
       </c>
       <c r="N8">
-        <v>1.00985248675219</v>
+        <v>1.013192945691773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9863696250564803</v>
+        <v>1.020370566785651</v>
       </c>
       <c r="D9">
-        <v>1.013049705687826</v>
+        <v>1.031703716737339</v>
       </c>
       <c r="E9">
-        <v>0.9953955274611559</v>
+        <v>1.021434081883412</v>
       </c>
       <c r="F9">
-        <v>1.018466837239714</v>
+        <v>1.042511845838738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045052330505958</v>
+        <v>1.033339548458048</v>
       </c>
       <c r="J9">
-        <v>1.012413061973919</v>
+        <v>1.026269494337774</v>
       </c>
       <c r="K9">
-        <v>1.025934550017388</v>
+        <v>1.034880373534089</v>
       </c>
       <c r="L9">
-        <v>1.00856375338895</v>
+        <v>1.024644919369313</v>
       </c>
       <c r="M9">
-        <v>1.03126724314379</v>
+        <v>1.04565332644607</v>
       </c>
       <c r="N9">
-        <v>1.008158986280743</v>
+        <v>1.012829009606376</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9798221273972673</v>
+        <v>1.019086831862168</v>
       </c>
       <c r="D10">
-        <v>1.008149888817581</v>
+        <v>1.030721246521219</v>
       </c>
       <c r="E10">
-        <v>0.9903166309842245</v>
+        <v>1.020353618115283</v>
       </c>
       <c r="F10">
-        <v>1.012480553367882</v>
+        <v>1.041277595279082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043121830698158</v>
+        <v>1.033095410801104</v>
       </c>
       <c r="J10">
-        <v>1.008859833965474</v>
+        <v>1.025537622591411</v>
       </c>
       <c r="K10">
-        <v>1.022373537274075</v>
+        <v>1.034185812090936</v>
       </c>
       <c r="L10">
-        <v>1.004862950723642</v>
+        <v>1.023856066897933</v>
       </c>
       <c r="M10">
-        <v>1.026628065498105</v>
+        <v>1.044704442998522</v>
       </c>
       <c r="N10">
-        <v>1.006975172506887</v>
+        <v>1.012586089628553</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.97691370937181</v>
+        <v>1.018531643317306</v>
       </c>
       <c r="D11">
-        <v>1.00597579737573</v>
+        <v>1.030295976675152</v>
       </c>
       <c r="E11">
-        <v>0.9880698333496125</v>
+        <v>1.019886862334504</v>
       </c>
       <c r="F11">
-        <v>1.009825418926894</v>
+        <v>1.040743659524208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042248431981431</v>
+        <v>1.032987724995809</v>
       </c>
       <c r="J11">
-        <v>1.007279473633187</v>
+        <v>1.025220604928175</v>
       </c>
       <c r="K11">
-        <v>1.020785892008307</v>
+        <v>1.033884355602827</v>
       </c>
       <c r="L11">
-        <v>1.00322029753724</v>
+        <v>1.023514746163959</v>
       </c>
       <c r="M11">
-        <v>1.024564390865399</v>
+        <v>1.044293266169403</v>
       </c>
       <c r="N11">
-        <v>1.006448624938291</v>
+        <v>1.012480838073653</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9758218343516036</v>
+        <v>1.018325524894093</v>
       </c>
       <c r="D12">
-        <v>1.005160038018777</v>
+        <v>1.030138036380223</v>
       </c>
       <c r="E12">
-        <v>0.9872277910425075</v>
+        <v>1.019713654376653</v>
       </c>
       <c r="F12">
-        <v>1.008829296333926</v>
+        <v>1.040545409622482</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041918221416903</v>
+        <v>1.032947430216045</v>
       </c>
       <c r="J12">
-        <v>1.006685915497697</v>
+        <v>1.025102834847986</v>
       </c>
       <c r="K12">
-        <v>1.020189043079075</v>
+        <v>1.033772276479584</v>
       </c>
       <c r="L12">
-        <v>1.002603846582495</v>
+        <v>1.023388004526771</v>
       </c>
       <c r="M12">
-        <v>1.023789273600787</v>
+        <v>1.044140492868874</v>
       </c>
       <c r="N12">
-        <v>1.006250860308564</v>
+        <v>1.012441733557516</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.976056577451455</v>
+        <v>1.018369733294511</v>
       </c>
       <c r="D13">
-        <v>1.005335397920053</v>
+        <v>1.030171913999587</v>
       </c>
       <c r="E13">
-        <v>0.9874087560449574</v>
+        <v>1.019750800533847</v>
       </c>
       <c r="F13">
-        <v>1.009043422409283</v>
+        <v>1.040587931354314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041989317462763</v>
+        <v>1.03295608693991</v>
       </c>
       <c r="J13">
-        <v>1.006813536177379</v>
+        <v>1.025128097615644</v>
       </c>
       <c r="K13">
-        <v>1.020317396055844</v>
+        <v>1.033796322549775</v>
       </c>
       <c r="L13">
-        <v>1.002736366670947</v>
+        <v>1.023415189202316</v>
       </c>
       <c r="M13">
-        <v>1.0239559325348</v>
+        <v>1.044173265219654</v>
       </c>
       <c r="N13">
-        <v>1.006293381642255</v>
+        <v>1.012450122027176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9768236937159268</v>
+        <v>1.018514603387217</v>
       </c>
       <c r="D14">
-        <v>1.005908535788447</v>
+        <v>1.030282920783439</v>
       </c>
       <c r="E14">
-        <v>0.9880003844680654</v>
+        <v>1.019872541515324</v>
       </c>
       <c r="F14">
-        <v>1.009743283322243</v>
+        <v>1.040727270530357</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042221255778611</v>
+        <v>1.032984400239292</v>
       </c>
       <c r="J14">
-        <v>1.007230544966341</v>
+        <v>1.025210870327566</v>
       </c>
       <c r="K14">
-        <v>1.02073670323445</v>
+        <v>1.033875093236394</v>
       </c>
       <c r="L14">
-        <v>1.003169471509827</v>
+        <v>1.023504268835086</v>
       </c>
       <c r="M14">
-        <v>1.024500496376773</v>
+        <v>1.044280638766493</v>
       </c>
       <c r="N14">
-        <v>1.006432322667155</v>
+        <v>1.012477605871336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9772947907951141</v>
+        <v>1.018603876371349</v>
       </c>
       <c r="D15">
-        <v>1.006260567610597</v>
+        <v>1.030351318944895</v>
       </c>
       <c r="E15">
-        <v>0.9883639046859196</v>
+        <v>1.019947572193027</v>
       </c>
       <c r="F15">
-        <v>1.010173167654709</v>
+        <v>1.040813132341204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042363388247288</v>
+        <v>1.033001805870272</v>
       </c>
       <c r="J15">
-        <v>1.007486602821456</v>
+        <v>1.025261867297582</v>
       </c>
       <c r="K15">
-        <v>1.020994099806706</v>
+        <v>1.033923612616923</v>
       </c>
       <c r="L15">
-        <v>1.003435479332146</v>
+        <v>1.023559159089153</v>
       </c>
       <c r="M15">
-        <v>1.024834873401906</v>
+        <v>1.044346789385373</v>
       </c>
       <c r="N15">
-        <v>1.006517637104472</v>
+        <v>1.012494538342453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9800135592152884</v>
+        <v>1.019123692299719</v>
       </c>
       <c r="D16">
-        <v>1.008293043831651</v>
+        <v>1.030749473522916</v>
       </c>
       <c r="E16">
-        <v>0.9904647128908477</v>
+        <v>1.020384618326683</v>
       </c>
       <c r="F16">
-        <v>1.012655402773141</v>
+        <v>1.041313041607671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043178992164546</v>
+        <v>1.033102516068538</v>
       </c>
       <c r="J16">
-        <v>1.008963814684974</v>
+        <v>1.025558659751271</v>
       </c>
       <c r="K16">
-        <v>1.022477919271757</v>
+        <v>1.034205803995721</v>
       </c>
       <c r="L16">
-        <v>1.004971099818633</v>
+        <v>1.023878724776008</v>
       </c>
       <c r="M16">
-        <v>1.026763840671427</v>
+        <v>1.044731725195118</v>
       </c>
       <c r="N16">
-        <v>1.007009816649105</v>
+        <v>1.012593073484209</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9816989695434744</v>
+        <v>1.019449941511175</v>
       </c>
       <c r="D17">
-        <v>1.009553698455224</v>
+        <v>1.030999265859751</v>
       </c>
       <c r="E17">
-        <v>0.9917695229376143</v>
+        <v>1.020659059520193</v>
       </c>
       <c r="F17">
-        <v>1.014195280228332</v>
+        <v>1.041626757574093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043680454340354</v>
+        <v>1.033165161420873</v>
       </c>
       <c r="J17">
-        <v>1.009879061333099</v>
+        <v>1.025744800634832</v>
       </c>
       <c r="K17">
-        <v>1.023396264949019</v>
+        <v>1.034382626971039</v>
       </c>
       <c r="L17">
-        <v>1.005923417788618</v>
+        <v>1.024079249828774</v>
       </c>
       <c r="M17">
-        <v>1.027958909933337</v>
+        <v>1.044973105103574</v>
       </c>
       <c r="N17">
-        <v>1.007314754503421</v>
+        <v>1.012654864732553</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9826750062446955</v>
+        <v>1.019640302384997</v>
       </c>
       <c r="D18">
-        <v>1.010283980468671</v>
+        <v>1.031144979487415</v>
       </c>
       <c r="E18">
-        <v>0.9925260269305939</v>
+        <v>1.020819241679963</v>
       </c>
       <c r="F18">
-        <v>1.015087412262393</v>
+        <v>1.041809791172751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043969343861544</v>
+        <v>1.033201511009807</v>
       </c>
       <c r="J18">
-        <v>1.010408895790083</v>
+        <v>1.025853362535651</v>
       </c>
       <c r="K18">
-        <v>1.023927529133917</v>
+        <v>1.034485696529529</v>
       </c>
       <c r="L18">
-        <v>1.006475030173128</v>
+        <v>1.024196237460918</v>
       </c>
       <c r="M18">
-        <v>1.028650701878134</v>
+        <v>1.045113868467735</v>
       </c>
       <c r="N18">
-        <v>1.007491279840969</v>
+        <v>1.012690900162345</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9830066323543825</v>
+        <v>1.01970522153917</v>
       </c>
       <c r="D19">
-        <v>1.010532143097114</v>
+        <v>1.031194666383157</v>
       </c>
       <c r="E19">
-        <v>0.9927832098634832</v>
+        <v>1.020873877454056</v>
       </c>
       <c r="F19">
-        <v>1.01539059190944</v>
+        <v>1.041872209043777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044067240986172</v>
+        <v>1.033213872960758</v>
       </c>
       <c r="J19">
-        <v>1.010588882647513</v>
+        <v>1.02589037744598</v>
       </c>
       <c r="K19">
-        <v>1.024107939303475</v>
+        <v>1.034520828958514</v>
       </c>
       <c r="L19">
-        <v>1.006662468894359</v>
+        <v>1.024236131378176</v>
       </c>
       <c r="M19">
-        <v>1.02888570062464</v>
+        <v>1.045161860087988</v>
       </c>
       <c r="N19">
-        <v>1.007551245695931</v>
+        <v>1.012703186220092</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9815188724248293</v>
+        <v>1.019414931300011</v>
       </c>
       <c r="D20">
-        <v>1.009418965394975</v>
+        <v>1.030972464045957</v>
       </c>
       <c r="E20">
-        <v>0.9916300041512391</v>
+        <v>1.020629603677157</v>
       </c>
       <c r="F20">
-        <v>1.014030694921209</v>
+        <v>1.041593093800504</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043627026193746</v>
+        <v>1.03315845985349</v>
       </c>
       <c r="J20">
-        <v>1.009781281012291</v>
+        <v>1.025724830600679</v>
       </c>
       <c r="K20">
-        <v>1.023298191195863</v>
+        <v>1.034363662592603</v>
       </c>
       <c r="L20">
-        <v>1.005821644021628</v>
+        <v>1.024057732817193</v>
       </c>
       <c r="M20">
-        <v>1.027831237926298</v>
+        <v>1.044947210357499</v>
       </c>
       <c r="N20">
-        <v>1.007282176738549</v>
+        <v>1.012648235770953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9765981207325141</v>
+        <v>1.018471939890754</v>
       </c>
       <c r="D21">
-        <v>1.005739990189193</v>
+        <v>1.030250231378539</v>
       </c>
       <c r="E21">
-        <v>0.9878263739193232</v>
+        <v>1.019836687235623</v>
       </c>
       <c r="F21">
-        <v>1.009537468142978</v>
+        <v>1.040686236456998</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042153116934981</v>
+        <v>1.032976070827855</v>
       </c>
       <c r="J21">
-        <v>1.007107929058275</v>
+        <v>1.025186496247489</v>
       </c>
       <c r="K21">
-        <v>1.020613426625229</v>
+        <v>1.033851900112973</v>
       </c>
       <c r="L21">
-        <v>1.003042108904694</v>
+        <v>1.023478035985993</v>
       </c>
       <c r="M21">
-        <v>1.024340375415918</v>
+        <v>1.044249021131429</v>
       </c>
       <c r="N21">
-        <v>1.006391468931611</v>
+        <v>1.012469512820162</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734370765052907</v>
+        <v>1.017879642341013</v>
       </c>
       <c r="D22">
-        <v>1.003379225002309</v>
+        <v>1.029796274018638</v>
       </c>
       <c r="E22">
-        <v>0.9853914166776608</v>
+        <v>1.019339110074051</v>
       </c>
       <c r="F22">
-        <v>1.006654967738315</v>
+        <v>1.040116509301198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041192817709194</v>
+        <v>1.032859686504451</v>
       </c>
       <c r="J22">
-        <v>1.005389094615662</v>
+        <v>1.024847934418463</v>
       </c>
       <c r="K22">
-        <v>1.018884034711384</v>
+        <v>1.033529529317526</v>
       </c>
       <c r="L22">
-        <v>1.001257935694197</v>
+        <v>1.023113790155714</v>
       </c>
       <c r="M22">
-        <v>1.022095731268978</v>
+        <v>1.043809788621867</v>
       </c>
       <c r="N22">
-        <v>1.005818778220032</v>
+        <v>1.012357088432243</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751193640784851</v>
+        <v>1.018193573210184</v>
       </c>
       <c r="D23">
-        <v>1.004635341862947</v>
+        <v>1.030036911600884</v>
       </c>
       <c r="E23">
-        <v>0.9866864687092317</v>
+        <v>1.019602793449887</v>
       </c>
       <c r="F23">
-        <v>1.008188625279436</v>
+        <v>1.04041848910064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04170513102</v>
+        <v>1.032921545745847</v>
       </c>
       <c r="J23">
-        <v>1.006303974701403</v>
+        <v>1.025027420522383</v>
       </c>
       <c r="K23">
-        <v>1.019804830923345</v>
+        <v>1.033700481086326</v>
       </c>
       <c r="L23">
-        <v>1.002207316792304</v>
+        <v>1.023306861256543</v>
       </c>
       <c r="M23">
-        <v>1.023290495975247</v>
+        <v>1.04404265750316</v>
       </c>
       <c r="N23">
-        <v>1.00612360315635</v>
+        <v>1.012416691711467</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9816002722602606</v>
+        <v>1.019430750706071</v>
       </c>
       <c r="D24">
-        <v>1.009479861006401</v>
+        <v>1.030984574588962</v>
       </c>
       <c r="E24">
-        <v>0.9916930607833635</v>
+        <v>1.020642913179725</v>
       </c>
       <c r="F24">
-        <v>1.014105082611013</v>
+        <v>1.041608304861497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043651179201948</v>
+        <v>1.033161488591677</v>
       </c>
       <c r="J24">
-        <v>1.009825476114135</v>
+        <v>1.025733854233426</v>
       </c>
       <c r="K24">
-        <v>1.023342520055166</v>
+        <v>1.03437223199008</v>
       </c>
       <c r="L24">
-        <v>1.00586764311172</v>
+        <v>1.024067455352196</v>
       </c>
       <c r="M24">
-        <v>1.027888943678205</v>
+        <v>1.044958911169832</v>
       </c>
       <c r="N24">
-        <v>1.007296901362291</v>
+        <v>1.012651231133064</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9888467150023588</v>
+        <v>1.020868979343792</v>
       </c>
       <c r="D25">
-        <v>1.014905089872811</v>
+        <v>1.032084826398545</v>
       </c>
       <c r="E25">
-        <v>0.9973246919977888</v>
+        <v>1.021854036488782</v>
       </c>
       <c r="F25">
-        <v>1.020734661665956</v>
+        <v>1.042990910295483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045768537142817</v>
+        <v>1.033432457242266</v>
       </c>
       <c r="J25">
-        <v>1.013755351235272</v>
+        <v>1.026553197924306</v>
       </c>
       <c r="K25">
-        <v>1.027276347344605</v>
+        <v>1.035149077374232</v>
       </c>
       <c r="L25">
-        <v>1.009964681128992</v>
+        <v>1.024951048782739</v>
       </c>
       <c r="M25">
-        <v>1.033019405170284</v>
+        <v>1.046021010763525</v>
       </c>
       <c r="N25">
-        <v>1.008606155533002</v>
+        <v>1.012923149936152</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022018107476085</v>
+        <v>0.9944235739552523</v>
       </c>
       <c r="D2">
-        <v>1.032962751587116</v>
+        <v>1.019084738980397</v>
       </c>
       <c r="E2">
-        <v>1.022823282317981</v>
+        <v>1.001683865271483</v>
       </c>
       <c r="F2">
-        <v>1.044095121657267</v>
+        <v>1.025846037445719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033642522701657</v>
+        <v>1.047349075695837</v>
       </c>
       <c r="J2">
-        <v>1.027206307857129</v>
+        <v>1.016772363928502</v>
       </c>
       <c r="K2">
-        <v>1.03576646986476</v>
+        <v>1.03028444486495</v>
       </c>
       <c r="L2">
-        <v>1.025656529141747</v>
+        <v>1.013119790918864</v>
       </c>
       <c r="M2">
-        <v>1.046867136853178</v>
+        <v>1.036956666678579</v>
       </c>
       <c r="N2">
-        <v>1.013139812424245</v>
+        <v>1.009611128633186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022853609180232</v>
+        <v>0.9983635315938455</v>
       </c>
       <c r="D3">
-        <v>1.033600382175798</v>
+        <v>1.022039023959184</v>
       </c>
       <c r="E3">
-        <v>1.023528897289025</v>
+        <v>1.004777203366938</v>
       </c>
       <c r="F3">
-        <v>1.044897680723172</v>
+        <v>1.029461496832857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033791518447116</v>
+        <v>1.048436340141572</v>
       </c>
       <c r="J3">
-        <v>1.027680270806949</v>
+        <v>1.018898908021115</v>
       </c>
       <c r="K3">
-        <v>1.036213439642323</v>
+        <v>1.032397468308293</v>
       </c>
       <c r="L3">
-        <v>1.026169168396784</v>
+        <v>1.015349321736283</v>
       </c>
       <c r="M3">
-        <v>1.047480886780453</v>
+        <v>1.039730794643234</v>
       </c>
       <c r="N3">
-        <v>1.013296993306183</v>
+        <v>1.010319358813424</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02339474965871</v>
+        <v>1.000864906429656</v>
       </c>
       <c r="D4">
-        <v>1.034013043331188</v>
+        <v>1.023914935877506</v>
       </c>
       <c r="E4">
-        <v>1.023986325646339</v>
+        <v>1.006747140482871</v>
       </c>
       <c r="F4">
-        <v>1.045417349796081</v>
+        <v>1.031758563128045</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033886289418028</v>
+        <v>1.049112693277914</v>
       </c>
       <c r="J4">
-        <v>1.02798683194037</v>
+        <v>1.020246513658854</v>
       </c>
       <c r="K4">
-        <v>1.03650204324569</v>
+        <v>1.033733048651878</v>
       </c>
       <c r="L4">
-        <v>1.026501056228335</v>
+        <v>1.016764809861597</v>
       </c>
       <c r="M4">
-        <v>1.047877729965687</v>
+        <v>1.041488223884349</v>
       </c>
       <c r="N4">
-        <v>1.013398634522934</v>
+        <v>1.010768099385523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023622366801488</v>
+        <v>1.001905341401504</v>
       </c>
       <c r="D5">
-        <v>1.034186541319721</v>
+        <v>1.024695237827057</v>
       </c>
       <c r="E5">
-        <v>1.02417882980115</v>
+        <v>1.007567943229651</v>
       </c>
       <c r="F5">
-        <v>1.04563590272557</v>
+        <v>1.032714382108842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03392573777882</v>
+        <v>1.049390629091739</v>
       </c>
       <c r="J5">
-        <v>1.02811567912987</v>
+        <v>1.020806419234998</v>
       </c>
       <c r="K5">
-        <v>1.036623223349677</v>
+        <v>1.034287112054398</v>
       </c>
       <c r="L5">
-        <v>1.026640622621399</v>
+        <v>1.017353549099737</v>
       </c>
       <c r="M5">
-        <v>1.048044490670786</v>
+        <v>1.042218260896422</v>
       </c>
       <c r="N5">
-        <v>1.013441348396689</v>
+        <v>1.010954524474523</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023660591810276</v>
+        <v>1.002079391698959</v>
       </c>
       <c r="D6">
-        <v>1.034215673234101</v>
+        <v>1.024825771539967</v>
       </c>
       <c r="E6">
-        <v>1.024211163845906</v>
+        <v>1.007705334339577</v>
       </c>
       <c r="F6">
-        <v>1.045672603592923</v>
+        <v>1.032874297527305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033932338238871</v>
+        <v>1.049436923185145</v>
       </c>
       <c r="J6">
-        <v>1.02813731127818</v>
+        <v>1.020900046093939</v>
       </c>
       <c r="K6">
-        <v>1.036643561251601</v>
+        <v>1.034379711784126</v>
       </c>
       <c r="L6">
-        <v>1.026664058782392</v>
+        <v>1.017452034560249</v>
       </c>
       <c r="M6">
-        <v>1.048072486243252</v>
+        <v>1.042340328293271</v>
       </c>
       <c r="N6">
-        <v>1.013448519287045</v>
+        <v>1.010985697160986</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023397790613988</v>
+        <v>1.000878852093598</v>
       </c>
       <c r="D7">
-        <v>1.034015361562306</v>
+        <v>1.023925394765368</v>
       </c>
       <c r="E7">
-        <v>1.023988897107691</v>
+        <v>1.006758136718289</v>
       </c>
       <c r="F7">
-        <v>1.045420269783355</v>
+        <v>1.031771373241267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03388681807573</v>
+        <v>1.049116432094806</v>
       </c>
       <c r="J7">
-        <v>1.027988553726685</v>
+        <v>1.020254020962272</v>
       </c>
       <c r="K7">
-        <v>1.036503663046874</v>
+        <v>1.033740480986148</v>
       </c>
       <c r="L7">
-        <v>1.026502920962928</v>
+        <v>1.016772701281436</v>
       </c>
       <c r="M7">
-        <v>1.047879958516204</v>
+        <v>1.041498012914068</v>
       </c>
       <c r="N7">
-        <v>1.013399205331617</v>
+        <v>1.010770599077985</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022300361586107</v>
+        <v>0.9957652691115427</v>
       </c>
       <c r="D8">
-        <v>1.033178225888122</v>
+        <v>1.020090680760269</v>
       </c>
       <c r="E8">
-        <v>1.023061571471347</v>
+        <v>1.002735964416988</v>
       </c>
       <c r="F8">
-        <v>1.044366274537532</v>
+        <v>1.027076844434913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033693215375671</v>
+        <v>1.047722213672639</v>
       </c>
       <c r="J8">
-        <v>1.027366510880474</v>
+        <v>1.017497029138773</v>
       </c>
       <c r="K8">
-        <v>1.035917652018142</v>
+        <v>1.031005217728513</v>
       </c>
       <c r="L8">
-        <v>1.025829740719718</v>
+        <v>1.013879002431718</v>
       </c>
       <c r="M8">
-        <v>1.047074616337178</v>
+        <v>1.037902120250579</v>
       </c>
       <c r="N8">
-        <v>1.013192945691773</v>
+        <v>1.00985248675219</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020370566785651</v>
+        <v>0.98636962505648</v>
       </c>
       <c r="D9">
-        <v>1.031703716737339</v>
+        <v>1.013049705687825</v>
       </c>
       <c r="E9">
-        <v>1.021434081883412</v>
+        <v>0.9953955274611553</v>
       </c>
       <c r="F9">
-        <v>1.042511845838738</v>
+        <v>1.018466837239713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033339548458048</v>
+        <v>1.045052330505957</v>
       </c>
       <c r="J9">
-        <v>1.026269494337774</v>
+        <v>1.012413061973918</v>
       </c>
       <c r="K9">
-        <v>1.034880373534089</v>
+        <v>1.025934550017387</v>
       </c>
       <c r="L9">
-        <v>1.024644919369313</v>
+        <v>1.00856375338895</v>
       </c>
       <c r="M9">
-        <v>1.04565332644607</v>
+        <v>1.03126724314379</v>
       </c>
       <c r="N9">
-        <v>1.012829009606376</v>
+        <v>1.008158986280743</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019086831862168</v>
+        <v>0.9798221273972674</v>
       </c>
       <c r="D10">
-        <v>1.030721246521219</v>
+        <v>1.008149888817581</v>
       </c>
       <c r="E10">
-        <v>1.020353618115283</v>
+        <v>0.9903166309842245</v>
       </c>
       <c r="F10">
-        <v>1.041277595279082</v>
+        <v>1.012480553367882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033095410801104</v>
+        <v>1.043121830698158</v>
       </c>
       <c r="J10">
-        <v>1.025537622591411</v>
+        <v>1.008859833965474</v>
       </c>
       <c r="K10">
-        <v>1.034185812090936</v>
+        <v>1.022373537274075</v>
       </c>
       <c r="L10">
-        <v>1.023856066897933</v>
+        <v>1.004862950723642</v>
       </c>
       <c r="M10">
-        <v>1.044704442998522</v>
+        <v>1.026628065498105</v>
       </c>
       <c r="N10">
-        <v>1.012586089628553</v>
+        <v>1.006975172506887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018531643317306</v>
+        <v>0.97691370937181</v>
       </c>
       <c r="D11">
-        <v>1.030295976675152</v>
+        <v>1.00597579737573</v>
       </c>
       <c r="E11">
-        <v>1.019886862334504</v>
+        <v>0.9880698333496126</v>
       </c>
       <c r="F11">
-        <v>1.040743659524208</v>
+        <v>1.009825418926895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032987724995809</v>
+        <v>1.042248431981431</v>
       </c>
       <c r="J11">
-        <v>1.025220604928175</v>
+        <v>1.007279473633187</v>
       </c>
       <c r="K11">
-        <v>1.033884355602827</v>
+        <v>1.020785892008307</v>
       </c>
       <c r="L11">
-        <v>1.023514746163959</v>
+        <v>1.00322029753724</v>
       </c>
       <c r="M11">
-        <v>1.044293266169403</v>
+        <v>1.024564390865399</v>
       </c>
       <c r="N11">
-        <v>1.012480838073653</v>
+        <v>1.006448624938291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018325524894093</v>
+        <v>0.9758218343516039</v>
       </c>
       <c r="D12">
-        <v>1.030138036380223</v>
+        <v>1.005160038018777</v>
       </c>
       <c r="E12">
-        <v>1.019713654376653</v>
+        <v>0.9872277910425072</v>
       </c>
       <c r="F12">
-        <v>1.040545409622482</v>
+        <v>1.008829296333926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032947430216045</v>
+        <v>1.041918221416902</v>
       </c>
       <c r="J12">
-        <v>1.025102834847986</v>
+        <v>1.006685915497697</v>
       </c>
       <c r="K12">
-        <v>1.033772276479584</v>
+        <v>1.020189043079075</v>
       </c>
       <c r="L12">
-        <v>1.023388004526771</v>
+        <v>1.002603846582495</v>
       </c>
       <c r="M12">
-        <v>1.044140492868874</v>
+        <v>1.023789273600787</v>
       </c>
       <c r="N12">
-        <v>1.012441733557516</v>
+        <v>1.006250860308564</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018369733294511</v>
+        <v>0.9760565774514549</v>
       </c>
       <c r="D13">
-        <v>1.030171913999587</v>
+        <v>1.005335397920054</v>
       </c>
       <c r="E13">
-        <v>1.019750800533847</v>
+        <v>0.987408756044957</v>
       </c>
       <c r="F13">
-        <v>1.040587931354314</v>
+        <v>1.009043422409283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03295608693991</v>
+        <v>1.041989317462763</v>
       </c>
       <c r="J13">
-        <v>1.025128097615644</v>
+        <v>1.006813536177379</v>
       </c>
       <c r="K13">
-        <v>1.033796322549775</v>
+        <v>1.020317396055844</v>
       </c>
       <c r="L13">
-        <v>1.023415189202316</v>
+        <v>1.002736366670946</v>
       </c>
       <c r="M13">
-        <v>1.044173265219654</v>
+        <v>1.0239559325348</v>
       </c>
       <c r="N13">
-        <v>1.012450122027176</v>
+        <v>1.006293381642255</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018514603387217</v>
+        <v>0.9768236937159266</v>
       </c>
       <c r="D14">
-        <v>1.030282920783439</v>
+        <v>1.005908535788447</v>
       </c>
       <c r="E14">
-        <v>1.019872541515324</v>
+        <v>0.9880003844680648</v>
       </c>
       <c r="F14">
-        <v>1.040727270530357</v>
+        <v>1.009743283322243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032984400239292</v>
+        <v>1.042221255778611</v>
       </c>
       <c r="J14">
-        <v>1.025210870327566</v>
+        <v>1.00723054496634</v>
       </c>
       <c r="K14">
-        <v>1.033875093236394</v>
+        <v>1.02073670323445</v>
       </c>
       <c r="L14">
-        <v>1.023504268835086</v>
+        <v>1.003169471509826</v>
       </c>
       <c r="M14">
-        <v>1.044280638766493</v>
+        <v>1.024500496376773</v>
       </c>
       <c r="N14">
-        <v>1.012477605871336</v>
+        <v>1.006432322667155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018603876371349</v>
+        <v>0.9772947907951142</v>
       </c>
       <c r="D15">
-        <v>1.030351318944895</v>
+        <v>1.006260567610597</v>
       </c>
       <c r="E15">
-        <v>1.019947572193027</v>
+        <v>0.9883639046859196</v>
       </c>
       <c r="F15">
-        <v>1.040813132341204</v>
+        <v>1.01017316765471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033001805870272</v>
+        <v>1.042363388247288</v>
       </c>
       <c r="J15">
-        <v>1.025261867297582</v>
+        <v>1.007486602821456</v>
       </c>
       <c r="K15">
-        <v>1.033923612616923</v>
+        <v>1.020994099806706</v>
       </c>
       <c r="L15">
-        <v>1.023559159089153</v>
+        <v>1.003435479332146</v>
       </c>
       <c r="M15">
-        <v>1.044346789385373</v>
+        <v>1.024834873401906</v>
       </c>
       <c r="N15">
-        <v>1.012494538342453</v>
+        <v>1.006517637104472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019123692299719</v>
+        <v>0.9800135592152881</v>
       </c>
       <c r="D16">
-        <v>1.030749473522916</v>
+        <v>1.00829304383165</v>
       </c>
       <c r="E16">
-        <v>1.020384618326683</v>
+        <v>0.990464712890847</v>
       </c>
       <c r="F16">
-        <v>1.041313041607671</v>
+        <v>1.012655402773141</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033102516068538</v>
+        <v>1.043178992164546</v>
       </c>
       <c r="J16">
-        <v>1.025558659751271</v>
+        <v>1.008963814684973</v>
       </c>
       <c r="K16">
-        <v>1.034205803995721</v>
+        <v>1.022477919271757</v>
       </c>
       <c r="L16">
-        <v>1.023878724776008</v>
+        <v>1.004971099818632</v>
       </c>
       <c r="M16">
-        <v>1.044731725195118</v>
+        <v>1.026763840671427</v>
       </c>
       <c r="N16">
-        <v>1.012593073484209</v>
+        <v>1.007009816649105</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019449941511175</v>
+        <v>0.9816989695434744</v>
       </c>
       <c r="D17">
-        <v>1.030999265859751</v>
+        <v>1.009553698455224</v>
       </c>
       <c r="E17">
-        <v>1.020659059520193</v>
+        <v>0.9917695229376142</v>
       </c>
       <c r="F17">
-        <v>1.041626757574093</v>
+        <v>1.014195280228331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033165161420873</v>
+        <v>1.043680454340354</v>
       </c>
       <c r="J17">
-        <v>1.025744800634832</v>
+        <v>1.009879061333099</v>
       </c>
       <c r="K17">
-        <v>1.034382626971039</v>
+        <v>1.023396264949019</v>
       </c>
       <c r="L17">
-        <v>1.024079249828774</v>
+        <v>1.005923417788618</v>
       </c>
       <c r="M17">
-        <v>1.044973105103574</v>
+        <v>1.027958909933336</v>
       </c>
       <c r="N17">
-        <v>1.012654864732553</v>
+        <v>1.007314754503421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019640302384997</v>
+        <v>0.9826750062446955</v>
       </c>
       <c r="D18">
-        <v>1.031144979487415</v>
+        <v>1.010283980468671</v>
       </c>
       <c r="E18">
-        <v>1.020819241679963</v>
+        <v>0.9925260269305934</v>
       </c>
       <c r="F18">
-        <v>1.041809791172751</v>
+        <v>1.015087412262393</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033201511009807</v>
+        <v>1.043969343861544</v>
       </c>
       <c r="J18">
-        <v>1.025853362535651</v>
+        <v>1.010408895790083</v>
       </c>
       <c r="K18">
-        <v>1.034485696529529</v>
+        <v>1.023927529133918</v>
       </c>
       <c r="L18">
-        <v>1.024196237460918</v>
+        <v>1.006475030173128</v>
       </c>
       <c r="M18">
-        <v>1.045113868467735</v>
+        <v>1.028650701878134</v>
       </c>
       <c r="N18">
-        <v>1.012690900162345</v>
+        <v>1.007491279840969</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01970522153917</v>
+        <v>0.9830066323543833</v>
       </c>
       <c r="D19">
-        <v>1.031194666383157</v>
+        <v>1.010532143097115</v>
       </c>
       <c r="E19">
-        <v>1.020873877454056</v>
+        <v>0.9927832098634843</v>
       </c>
       <c r="F19">
-        <v>1.041872209043777</v>
+        <v>1.015390591909441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033213872960758</v>
+        <v>1.044067240986172</v>
       </c>
       <c r="J19">
-        <v>1.02589037744598</v>
+        <v>1.010588882647514</v>
       </c>
       <c r="K19">
-        <v>1.034520828958514</v>
+        <v>1.024107939303476</v>
       </c>
       <c r="L19">
-        <v>1.024236131378176</v>
+        <v>1.00666246889436</v>
       </c>
       <c r="M19">
-        <v>1.045161860087988</v>
+        <v>1.028885700624641</v>
       </c>
       <c r="N19">
-        <v>1.012703186220092</v>
+        <v>1.007551245695931</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019414931300011</v>
+        <v>0.9815188724248289</v>
       </c>
       <c r="D20">
-        <v>1.030972464045957</v>
+        <v>1.009418965394976</v>
       </c>
       <c r="E20">
-        <v>1.020629603677157</v>
+        <v>0.9916300041512384</v>
       </c>
       <c r="F20">
-        <v>1.041593093800504</v>
+        <v>1.014030694921209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03315845985349</v>
+        <v>1.043627026193746</v>
       </c>
       <c r="J20">
-        <v>1.025724830600679</v>
+        <v>1.009781281012291</v>
       </c>
       <c r="K20">
-        <v>1.034363662592603</v>
+        <v>1.023298191195863</v>
       </c>
       <c r="L20">
-        <v>1.024057732817193</v>
+        <v>1.005821644021627</v>
       </c>
       <c r="M20">
-        <v>1.044947210357499</v>
+        <v>1.027831237926298</v>
       </c>
       <c r="N20">
-        <v>1.012648235770953</v>
+        <v>1.007282176738548</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018471939890754</v>
+        <v>0.9765981207325144</v>
       </c>
       <c r="D21">
-        <v>1.030250231378539</v>
+        <v>1.005739990189194</v>
       </c>
       <c r="E21">
-        <v>1.019836687235623</v>
+        <v>0.9878263739193232</v>
       </c>
       <c r="F21">
-        <v>1.040686236456998</v>
+        <v>1.009537468142978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032976070827855</v>
+        <v>1.042153116934981</v>
       </c>
       <c r="J21">
-        <v>1.025186496247489</v>
+        <v>1.007107929058275</v>
       </c>
       <c r="K21">
-        <v>1.033851900112973</v>
+        <v>1.02061342662523</v>
       </c>
       <c r="L21">
-        <v>1.023478035985993</v>
+        <v>1.003042108904694</v>
       </c>
       <c r="M21">
-        <v>1.044249021131429</v>
+        <v>1.024340375415918</v>
       </c>
       <c r="N21">
-        <v>1.012469512820162</v>
+        <v>1.006391468931611</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017879642341013</v>
+        <v>0.9734370765052909</v>
       </c>
       <c r="D22">
-        <v>1.029796274018638</v>
+        <v>1.00337922500231</v>
       </c>
       <c r="E22">
-        <v>1.019339110074051</v>
+        <v>0.9853914166776607</v>
       </c>
       <c r="F22">
-        <v>1.040116509301198</v>
+        <v>1.006654967738315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032859686504451</v>
+        <v>1.041192817709194</v>
       </c>
       <c r="J22">
-        <v>1.024847934418463</v>
+        <v>1.005389094615662</v>
       </c>
       <c r="K22">
-        <v>1.033529529317526</v>
+        <v>1.018884034711385</v>
       </c>
       <c r="L22">
-        <v>1.023113790155714</v>
+        <v>1.001257935694197</v>
       </c>
       <c r="M22">
-        <v>1.043809788621867</v>
+        <v>1.022095731268979</v>
       </c>
       <c r="N22">
-        <v>1.012357088432243</v>
+        <v>1.005818778220032</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018193573210184</v>
+        <v>0.9751193640784851</v>
       </c>
       <c r="D23">
-        <v>1.030036911600884</v>
+        <v>1.004635341862947</v>
       </c>
       <c r="E23">
-        <v>1.019602793449887</v>
+        <v>0.9866864687092318</v>
       </c>
       <c r="F23">
-        <v>1.04041848910064</v>
+        <v>1.008188625279436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032921545745847</v>
+        <v>1.04170513102</v>
       </c>
       <c r="J23">
-        <v>1.025027420522383</v>
+        <v>1.006303974701403</v>
       </c>
       <c r="K23">
-        <v>1.033700481086326</v>
+        <v>1.019804830923345</v>
       </c>
       <c r="L23">
-        <v>1.023306861256543</v>
+        <v>1.002207316792304</v>
       </c>
       <c r="M23">
-        <v>1.04404265750316</v>
+        <v>1.023290495975248</v>
       </c>
       <c r="N23">
-        <v>1.012416691711467</v>
+        <v>1.006123603156349</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019430750706071</v>
+        <v>0.9816002722602605</v>
       </c>
       <c r="D24">
-        <v>1.030984574588962</v>
+        <v>1.009479861006401</v>
       </c>
       <c r="E24">
-        <v>1.020642913179725</v>
+        <v>0.9916930607833633</v>
       </c>
       <c r="F24">
-        <v>1.041608304861497</v>
+        <v>1.014105082611013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033161488591677</v>
+        <v>1.043651179201948</v>
       </c>
       <c r="J24">
-        <v>1.025733854233426</v>
+        <v>1.009825476114135</v>
       </c>
       <c r="K24">
-        <v>1.03437223199008</v>
+        <v>1.023342520055165</v>
       </c>
       <c r="L24">
-        <v>1.024067455352196</v>
+        <v>1.00586764311172</v>
       </c>
       <c r="M24">
-        <v>1.044958911169832</v>
+        <v>1.027888943678205</v>
       </c>
       <c r="N24">
-        <v>1.012651231133064</v>
+        <v>1.007296901362291</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020868979343792</v>
+        <v>0.9888467150023595</v>
       </c>
       <c r="D25">
-        <v>1.032084826398545</v>
+        <v>1.014905089872812</v>
       </c>
       <c r="E25">
-        <v>1.021854036488782</v>
+        <v>0.9973246919977894</v>
       </c>
       <c r="F25">
-        <v>1.042990910295483</v>
+        <v>1.020734661665957</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033432457242266</v>
+        <v>1.045768537142818</v>
       </c>
       <c r="J25">
-        <v>1.026553197924306</v>
+        <v>1.013755351235273</v>
       </c>
       <c r="K25">
-        <v>1.035149077374232</v>
+        <v>1.027276347344605</v>
       </c>
       <c r="L25">
-        <v>1.024951048782739</v>
+        <v>1.009964681128993</v>
       </c>
       <c r="M25">
-        <v>1.046021010763525</v>
+        <v>1.033019405170285</v>
       </c>
       <c r="N25">
-        <v>1.012923149936152</v>
+        <v>1.008606155533003</v>
       </c>
     </row>
   </sheetData>
